--- a/Pivot Tables/Pivot tables.xlsx
+++ b/Pivot Tables/Pivot tables.xlsx
@@ -5,27 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Bases-Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Bases-Proyecto\Pivot Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E635668-4B95-4CB9-80ED-424FA7B1321B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A0A70-B40C-4F3E-892C-AE2D476355E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8F3AF927-60EF-41DC-8237-5F1A6CBF701F}"/>
   </bookViews>
   <sheets>
     <sheet name="Albumes" sheetId="1" r:id="rId1"/>
     <sheet name="Comentarios" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Canciones" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
-    <pivotCache cacheId="9" r:id="rId5"/>
-    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -293,11 +298,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +460,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Marco Medina" refreshedDate="43588.985922569445" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{0445429E-FAAB-4939-8194-12AB92CDB24D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B4:E19" sheet="Sheet4"/>
+    <worksheetSource ref="B4:E19" sheet="Canciones"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Nombre Cancion" numFmtId="0">
@@ -739,7 +744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C656A513-5DD8-4BFB-AD57-2433B7E7D520}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C656A513-5DD8-4BFB-AD57-2433B7E7D520}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:H9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -823,7 +828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{692EFE95-7CE1-47CC-B500-B8F00D37BCC7}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{692EFE95-7CE1-47CC-B500-B8F00D37BCC7}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:I8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -887,7 +892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F29863F-CD7D-4214-B7CA-64A5ACE8F473}" name="PivotTable5" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F29863F-CD7D-4214-B7CA-64A5ACE8F473}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G4:H22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1539,11 +1544,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1626,7 +1631,7 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>43507</v>
       </c>
       <c r="E5">
@@ -1649,7 +1654,7 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>43505</v>
       </c>
       <c r="E6">
@@ -1672,7 +1677,7 @@
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>43534</v>
       </c>
       <c r="E7">
@@ -1708,11 +1713,11 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1728,7 +1733,7 @@
   <dimension ref="B4:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1787,7 @@
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>41060</v>
       </c>
       <c r="E5">
@@ -1802,7 +1807,7 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>41452</v>
       </c>
       <c r="E6">
@@ -1822,7 +1827,7 @@
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>41060</v>
       </c>
       <c r="E7">
@@ -1842,7 +1847,7 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>41060</v>
       </c>
       <c r="E8">
@@ -1862,7 +1867,7 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>41060</v>
       </c>
       <c r="E9">
@@ -1882,7 +1887,7 @@
       <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>41060</v>
       </c>
       <c r="E10">
@@ -1902,7 +1907,7 @@
       <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>41060</v>
       </c>
       <c r="E11">
@@ -1922,7 +1927,7 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>41060</v>
       </c>
       <c r="E12">
@@ -1942,7 +1947,7 @@
       <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>41060</v>
       </c>
       <c r="E13">
@@ -1962,7 +1967,7 @@
       <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>41060</v>
       </c>
       <c r="E14">
@@ -1982,7 +1987,7 @@
       <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>41060</v>
       </c>
       <c r="E15">
@@ -2002,7 +2007,7 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>41060</v>
       </c>
       <c r="E16">
@@ -2022,7 +2027,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>41060</v>
       </c>
       <c r="E17">
@@ -2042,7 +2047,7 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>41060</v>
       </c>
       <c r="E18">
@@ -2062,7 +2067,7 @@
       <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>41060</v>
       </c>
       <c r="E19">
